--- a/Especificação do Centro Estatístico.xlsx
+++ b/Especificação do Centro Estatístico.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
   <si>
     <t>Nome</t>
   </si>
@@ -95,13 +95,73 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>Reporta Actor inexistencia da informação</t>
-  </si>
-  <si>
     <t>Exceção</t>
   </si>
   <si>
     <t>E1</t>
+  </si>
+  <si>
+    <t>Reporta Actor a inexistencia da informação</t>
+  </si>
+  <si>
+    <t>Consultar Estatística da Turma</t>
+  </si>
+  <si>
+    <t>Ser Utilizador registado no sistema, exceto Aluno e Encarregado.</t>
+  </si>
+  <si>
+    <t>Actor vizualiza dados estatístico de uma determinada turma de Alunos</t>
+  </si>
+  <si>
+    <t>Consultar estatística da escola</t>
+  </si>
+  <si>
+    <t>Actor vizualiza dados estatístico da escola, referentes ao desempenho dos Alunos</t>
+  </si>
+  <si>
+    <t>Ser um membro da Direcção</t>
+  </si>
+  <si>
+    <t>&lt;&lt;include&gt;&gt; Selecionar turma</t>
+  </si>
+  <si>
+    <t>Pede estatística da escola</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Mostra formulário de procura</t>
+  </si>
+  <si>
+    <t>Insere formulário de pesquisa de utilizador</t>
+  </si>
+  <si>
+    <t>Controi query de pesquisa</t>
+  </si>
+  <si>
+    <t>Reúne resultados da query</t>
+  </si>
+  <si>
+    <t>Mostra lista de resultados da pesquisa</t>
+  </si>
+  <si>
+    <t>Selecionar Aluno</t>
+  </si>
+  <si>
+    <t>Permite ao Actor procurar um utilizador registado no sistema ao qual ele tem acesso de leitura</t>
+  </si>
+  <si>
+    <t>Ser membro registado excepto Aluno</t>
+  </si>
+  <si>
+    <t>Selecionar Turma</t>
+  </si>
+  <si>
+    <t>Permite ao Actor procurar uma turma da qual ele tem acesso de leitura</t>
+  </si>
+  <si>
+    <t>Ser membro registado excepto Aluno e Encarregado de Educação</t>
   </si>
 </sst>
 </file>
@@ -185,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -527,87 +587,270 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,297 +1153,905 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="21">
+      <c r="B7" s="22"/>
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="25" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13">
+      <c r="B8" s="22"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13">
+      <c r="B9" s="22"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29">
+      <c r="B10" s="22"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13">
         <v>4</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29">
+      <c r="B11" s="22"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13">
         <v>5</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13">
+        <v>4</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="22"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13">
+        <v>5</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31" t="s">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="24"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34" t="s">
+      <c r="G27" s="15"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="25"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+    </row>
+    <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="37"/>
+    </row>
+    <row r="34" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="22"/>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="22"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="22"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="22"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13">
+        <v>4</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="22"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13">
+        <v>5</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="24"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36" t="s">
+      <c r="F41" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="25"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="26"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="28"/>
+    </row>
+    <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
+    </row>
+    <row r="45" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="43"/>
+    </row>
+    <row r="46" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="43"/>
+    </row>
+    <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="44"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="46"/>
+    </row>
+    <row r="48" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="58"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="47">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="58"/>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="47"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="59"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="58"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="47">
+        <v>3</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="59"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="58"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="47">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="59"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="58"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="47">
+        <v>5</v>
+      </c>
+      <c r="F53" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="59"/>
+    </row>
+    <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="62"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="50">
+        <v>6</v>
+      </c>
+      <c r="F54" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="49"/>
+      <c r="H54" s="63"/>
+    </row>
+    <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="40"/>
+    </row>
+    <row r="57" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="43"/>
+    </row>
+    <row r="58" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="43"/>
+    </row>
+    <row r="59" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="44"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="46"/>
+    </row>
+    <row r="60" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="58"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="47">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="58"/>
+      <c r="C62" s="2">
+        <v>2</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="47"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" s="20"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="58"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="47">
+        <v>3</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="20"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="58"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="47">
+        <v>4</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="20"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="58"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="47">
+        <v>5</v>
+      </c>
+      <c r="F65" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="20"/>
+    </row>
+    <row r="66" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="60"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="50">
+        <v>6</v>
+      </c>
+      <c r="F66" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="49"/>
+      <c r="H66" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="36">
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="H61:H66"/>
+    <mergeCell ref="H49:H54"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="B20:B25"/>
     <mergeCell ref="H7:H11"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="B12:B14"/>

--- a/Especificação do Centro Estatístico.xlsx
+++ b/Especificação do Centro Estatístico.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="46">
   <si>
     <t>Nome</t>
   </si>
@@ -168,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +200,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +252,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="36">
     <border>
@@ -714,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -823,9 +843,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -842,15 +859,54 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1133,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,9 +1336,7 @@
       <c r="F11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="G11" s="12"/>
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1417,16 +1471,16 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="6">
+      <c r="C21" s="61">
         <v>1</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="19" t="s">
+      <c r="E21" s="63"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="64" t="s">
         <v>9</v>
       </c>
       <c r="I21" s="10"/>
@@ -1434,68 +1488,66 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2">
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67">
         <v>2</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="20"/>
+      <c r="H22" s="68"/>
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="2">
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67">
         <v>3</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="20"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13">
+      <c r="C24" s="69"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71">
         <v>4</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="68"/>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="22"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13">
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="71">
         <v>5</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="20"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
@@ -1602,80 +1654,78 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="22"/>
-      <c r="C35" s="6">
+      <c r="C35" s="73">
         <v>1</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
+      <c r="E35" s="75"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="76" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="22"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="2">
+      <c r="C36" s="77"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="79">
         <v>2</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="20"/>
+      <c r="H36" s="80"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="22"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="2">
+      <c r="C37" s="77"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="79">
         <v>3</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="20"/>
+      <c r="H37" s="80"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="22"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13">
+      <c r="C38" s="81"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="83">
         <v>4</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="20"/>
+      <c r="H38" s="80"/>
     </row>
     <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="22"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13">
+      <c r="C39" s="81"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="83">
         <v>5</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="20"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="80"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="23" t="s">
@@ -1753,7 +1803,7 @@
       <c r="F46" s="43"/>
     </row>
     <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="52" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="44"/>
@@ -1762,26 +1812,26 @@
       <c r="F47" s="46"/>
     </row>
     <row r="48" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56" t="s">
+      <c r="C48" s="55"/>
+      <c r="D48" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56" t="s">
+      <c r="E48" s="55"/>
+      <c r="F48" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="56" t="s">
+      <c r="G48" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="57" t="s">
+      <c r="H48" s="56" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="58"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="47">
@@ -1793,12 +1843,12 @@
       <c r="G49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="59" t="s">
+      <c r="H49" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="58"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="2">
         <v>2</v>
       </c>
@@ -1810,10 +1860,10 @@
       <c r="G50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="59"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="58"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="47">
@@ -1825,10 +1875,10 @@
       <c r="G51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="59"/>
+      <c r="H51" s="58"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="58"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
       <c r="E52" s="47">
@@ -1840,25 +1890,25 @@
       <c r="G52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="59"/>
+      <c r="H52" s="58"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="58"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
       <c r="E53" s="47">
         <v>5</v>
       </c>
-      <c r="F53" s="54" t="s">
+      <c r="F53" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="59"/>
+      <c r="H53" s="58"/>
     </row>
     <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="62"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="48"/>
       <c r="D54" s="49"/>
       <c r="E54" s="50">
@@ -1868,7 +1918,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="49"/>
-      <c r="H54" s="63"/>
+      <c r="H54" s="60"/>
     </row>
     <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1905,7 +1955,7 @@
       <c r="F58" s="43"/>
     </row>
     <row r="59" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="52" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="44"/>
@@ -1914,118 +1964,118 @@
       <c r="F59" s="46"/>
     </row>
     <row r="60" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56" t="s">
+      <c r="C60" s="55"/>
+      <c r="D60" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56" t="s">
+      <c r="E60" s="55"/>
+      <c r="F60" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G60" s="56" t="s">
+      <c r="G60" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H60" s="57" t="s">
+      <c r="H60" s="56" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="58"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="47">
+      <c r="B61" s="24"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="85">
         <v>1</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="61" t="s">
+      <c r="H61" s="91" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="58"/>
-      <c r="C62" s="2">
+      <c r="B62" s="24"/>
+      <c r="C62" s="67">
         <v>2</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="47"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3" t="s">
+      <c r="E62" s="85"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="H62" s="20"/>
+      <c r="H62" s="68"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="58"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="47">
+      <c r="B63" s="24"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="85">
         <v>3</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="H63" s="20"/>
+      <c r="H63" s="68"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="58"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="47">
+      <c r="B64" s="24"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="85">
         <v>4</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="H64" s="20"/>
+      <c r="H64" s="68"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="58"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="47">
+      <c r="B65" s="24"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="85">
         <v>5</v>
       </c>
-      <c r="F65" s="54" t="s">
+      <c r="F65" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="20"/>
+      <c r="H65" s="68"/>
     </row>
     <row r="66" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="60"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="50">
+      <c r="B66" s="25"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="89">
         <v>6</v>
       </c>
-      <c r="F66" s="51" t="s">
+      <c r="F66" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="49"/>
-      <c r="H66" s="52"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B60:B65"/>
     <mergeCell ref="H61:H66"/>
+    <mergeCell ref="B60:B66"/>
     <mergeCell ref="H49:H54"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="C57:F57"/>
